--- a/biology/Médecine/Anatole_Guindey/Anatole_Guindey.xlsx
+++ b/biology/Médecine/Anatole_Guindey/Anatole_Guindey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anatole Guindey, né le 16 janvier 1834 à Langres et mort le 14 octobre 1898 à Évreux, est un médecin et homme politique français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en Haute-Marne, Guindey arrive, en 1835, à l’âge de dix-huit mois, à Évreux, où son père a été nommé principal du collège. Médecin de profession, il a étudié la médecine à la Faculté de médecine de Paris et revient pratiquer à l’hôpital d’Évreux. 
-Républicain, il est conseiller général (canton d'Évreux-Nord) dès 1880. Il est élu sénateur de l'Eure le 15 mars 1891, succédant ainsi à Alphonse Lecointe. Il fut réélu le 7 janvier 1894, et conserva son mandat jusqu'à sa mort[1], d'une crise cardiaque alors qu’il donnait une consultation médicale. Il fut également maire d'Évreux de 1896 à 1898.
-Avant même sa mort, on a donné son nom à l'ancienne rue Désormeaux d'Évreux, ainsi devenue la « rue du Docteur-Guindey », nom attesté dès 1890[2].
+Républicain, il est conseiller général (canton d'Évreux-Nord) dès 1880. Il est élu sénateur de l'Eure le 15 mars 1891, succédant ainsi à Alphonse Lecointe. Il fut réélu le 7 janvier 1894, et conserva son mandat jusqu'à sa mort, d'une crise cardiaque alors qu’il donnait une consultation médicale. Il fut également maire d'Évreux de 1896 à 1898.
+Avant même sa mort, on a donné son nom à l'ancienne rue Désormeaux d'Évreux, ainsi devenue la « rue du Docteur-Guindey », nom attesté dès 1890.
 Il est enterré au cimetière Saint-Louis d'Évreux; son tombeau est réalisé par le sculpteur eurois Albert Miserey.
 Il est le père du haut fonctionnaire Claude Guindey, mort pour la France.
 </t>
